--- a/PrecioFrutaHortalizas/Consolidado/referenciaProducto.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/referenciaProducto.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\precios_fruta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB03D0-7577-4ABE-BDFF-0FA113032925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1765,8 +1771,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1829,11 +1835,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1875,7 +1889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1907,9 +1921,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1941,6 +1973,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2116,4781 +2166,4069 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>100100</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
         <v>344</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>100101</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>234</v>
       </c>
-      <c r="E3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3">
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>100102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="E4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4">
+      <c r="D5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>100103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>234</v>
       </c>
-      <c r="E5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5">
+      <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>100104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>234</v>
       </c>
-      <c r="E6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6">
+      <c r="D7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>100105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>234</v>
       </c>
-      <c r="E7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7">
+      <c r="D8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8">
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>100106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>234</v>
       </c>
-      <c r="E8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8">
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9">
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>100107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>234</v>
       </c>
-      <c r="E9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9">
+      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10">
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>100108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>234</v>
       </c>
-      <c r="E10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10">
+      <c r="D11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11">
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>100109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12">
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>100110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="E12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F12">
+      <c r="D13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>100111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>235</v>
       </c>
-      <c r="E13" t="s">
-        <v>355</v>
-      </c>
-      <c r="F13">
+      <c r="D14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14">
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>100112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>235</v>
       </c>
-      <c r="E14" t="s">
-        <v>356</v>
-      </c>
-      <c r="F14">
+      <c r="D15" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15">
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>235</v>
       </c>
-      <c r="E15" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15">
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16">
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>100114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>100115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
         <v>359</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>100116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
         <v>360</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>100117</v>
       </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" t="s">
         <v>361</v>
       </c>
-      <c r="F19">
+      <c r="E19">
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>100118</v>
       </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" t="s">
         <v>362</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>100201</v>
       </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
         <v>238</v>
       </c>
-      <c r="E21" t="s">
-        <v>363</v>
-      </c>
-      <c r="F21">
+      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22">
         <v>1002</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>100202</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
         <v>238</v>
       </c>
-      <c r="E22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F22">
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23">
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>100203</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>238</v>
       </c>
-      <c r="E23" t="s">
-        <v>365</v>
-      </c>
-      <c r="F23">
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24">
         <v>1002</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>100204</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>100205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="E24" t="s">
-        <v>366</v>
-      </c>
-      <c r="F24">
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25">
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>100205</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>100206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>238</v>
       </c>
-      <c r="E25" t="s">
-        <v>367</v>
-      </c>
-      <c r="F25">
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26">
         <v>1002</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>100206</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>238</v>
       </c>
-      <c r="E26" t="s">
-        <v>368</v>
-      </c>
-      <c r="F26">
+      <c r="D27" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27">
         <v>1002</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>100207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
         <v>238</v>
       </c>
-      <c r="E27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27">
+      <c r="D28" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28">
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>100208</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
         <v>238</v>
       </c>
-      <c r="E28" t="s">
-        <v>370</v>
-      </c>
-      <c r="F28">
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29">
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>100209</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E29" t="s">
-        <v>371</v>
-      </c>
-      <c r="F29">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>100301</v>
       </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E30">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100302</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
         <v>239</v>
       </c>
-      <c r="E30" t="s">
-        <v>372</v>
-      </c>
-      <c r="F30">
+      <c r="D31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31">
         <v>1003</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>100302</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
         <v>239</v>
       </c>
-      <c r="E31" t="s">
-        <v>373</v>
-      </c>
-      <c r="F31">
+      <c r="D32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32">
         <v>1003</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>100303</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E32" t="s">
-        <v>374</v>
-      </c>
-      <c r="F32">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>100401</v>
       </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
-      </c>
-      <c r="E33" t="s">
         <v>375</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>1004</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>100402</v>
       </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" t="s">
         <v>376</v>
       </c>
-      <c r="F34">
+      <c r="E34">
         <v>1004</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>100403</v>
       </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" t="s">
         <v>377</v>
       </c>
-      <c r="F35">
+      <c r="E35">
         <v>1004</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>100404</v>
       </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" t="s">
         <v>378</v>
       </c>
-      <c r="F36">
+      <c r="E36">
         <v>1004</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>100405</v>
       </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E37" t="s">
         <v>379</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>1004</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>100406</v>
       </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" t="s">
         <v>380</v>
       </c>
-      <c r="F38">
+      <c r="E38">
         <v>1004</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>100407</v>
       </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" t="s">
         <v>381</v>
       </c>
-      <c r="F39">
+      <c r="E39">
         <v>1004</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>100408</v>
       </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" t="s">
         <v>382</v>
       </c>
-      <c r="F40">
+      <c r="E40">
         <v>1004</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>100409</v>
       </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" t="s">
         <v>383</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>1004</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>130101</v>
       </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>130201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
         <v>249</v>
       </c>
-      <c r="E42" t="s">
-        <v>384</v>
-      </c>
-      <c r="F42">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>130201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
       <c r="D43" t="s">
+        <v>385</v>
+      </c>
+      <c r="E43">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>130202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
         <v>249</v>
       </c>
-      <c r="E43" t="s">
-        <v>385</v>
-      </c>
-      <c r="F43">
+      <c r="D44" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44">
         <v>1302</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>130202</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" t="s">
-        <v>386</v>
-      </c>
-      <c r="F44">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>130301</v>
       </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" t="s">
         <v>387</v>
       </c>
-      <c r="F45">
+      <c r="E45">
         <v>1303</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>130401</v>
       </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" t="s">
         <v>388</v>
       </c>
-      <c r="F46">
+      <c r="E46">
         <v>1304</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>130501</v>
       </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" t="s">
         <v>389</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>1305</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>130601</v>
       </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
+        <v>390</v>
+      </c>
+      <c r="E48">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>130602</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
         <v>253</v>
       </c>
-      <c r="E48" t="s">
-        <v>390</v>
-      </c>
-      <c r="F48">
+      <c r="D49" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49">
         <v>1306</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>130602</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" t="s">
-        <v>391</v>
-      </c>
-      <c r="F49">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>130603</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50">
         <v>1306</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>130603</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" t="s">
-        <v>392</v>
-      </c>
-      <c r="F50">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>130604</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51">
         <v>1306</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>130604</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>140101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
         <v>255</v>
       </c>
-      <c r="E51" t="s">
-        <v>393</v>
-      </c>
-      <c r="F51">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>140101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
       <c r="D52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>140102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
         <v>255</v>
       </c>
-      <c r="E52" t="s">
-        <v>394</v>
-      </c>
-      <c r="F52">
+      <c r="D53" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53">
         <v>1401</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>140102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>140103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
         <v>255</v>
       </c>
-      <c r="E53" t="s">
-        <v>395</v>
-      </c>
-      <c r="F53">
+      <c r="D54" t="s">
+        <v>396</v>
+      </c>
+      <c r="E54">
         <v>1401</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>140103</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>140104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
         <v>255</v>
       </c>
-      <c r="E54" t="s">
-        <v>396</v>
-      </c>
-      <c r="F54">
+      <c r="D55" t="s">
+        <v>397</v>
+      </c>
+      <c r="E55">
         <v>1401</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>140104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" t="s">
-        <v>397</v>
-      </c>
-      <c r="F55">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>140105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>398</v>
+      </c>
+      <c r="E56">
         <v>1401</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>140105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" t="s">
-        <v>398</v>
-      </c>
-      <c r="F56">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>140106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57">
         <v>1401</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>140106</v>
-      </c>
-      <c r="C57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" t="s">
-        <v>399</v>
-      </c>
-      <c r="F57">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>140201</v>
       </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
-      </c>
-      <c r="E58" t="s">
         <v>400</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>1402</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>140202</v>
       </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" t="s">
         <v>401</v>
       </c>
-      <c r="F59">
+      <c r="E59">
         <v>1402</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>140203</v>
       </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" t="s">
         <v>402</v>
       </c>
-      <c r="F60">
+      <c r="E60">
         <v>1402</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>140204</v>
       </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" t="s">
         <v>403</v>
       </c>
-      <c r="F61">
+      <c r="E61">
         <v>1402</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>140301</v>
       </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
-      </c>
-      <c r="E62" t="s">
         <v>404</v>
       </c>
-      <c r="F62">
+      <c r="E62">
         <v>1403</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>140302</v>
       </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" t="s">
         <v>405</v>
       </c>
-      <c r="F63">
+      <c r="E63">
         <v>1403</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>140303</v>
       </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" t="s">
         <v>406</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>1403</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>140304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" t="s">
         <v>407</v>
       </c>
-      <c r="F65">
+      <c r="E65">
         <v>1403</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>140305</v>
       </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
-      </c>
-      <c r="E66" t="s">
         <v>408</v>
       </c>
-      <c r="F66">
+      <c r="E66">
         <v>1403</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>140306</v>
       </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" t="s">
         <v>409</v>
       </c>
-      <c r="F67">
+      <c r="E67">
         <v>1403</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>140307</v>
       </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
-      </c>
-      <c r="E68" t="s">
         <v>410</v>
       </c>
-      <c r="F68">
+      <c r="E68">
         <v>1403</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>140401</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
       </c>
       <c r="D69" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>140402</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
         <v>71</v>
       </c>
-      <c r="E69" t="s">
-        <v>411</v>
-      </c>
-      <c r="F69">
+      <c r="D70" t="s">
+        <v>412</v>
+      </c>
+      <c r="E70">
         <v>1404</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>140402</v>
-      </c>
-      <c r="C70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" t="s">
-        <v>412</v>
-      </c>
-      <c r="F70">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>140403</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" t="s">
+        <v>413</v>
+      </c>
+      <c r="E71">
         <v>1404</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>140403</v>
-      </c>
-      <c r="C71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" t="s">
-        <v>413</v>
-      </c>
-      <c r="F71">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>140404</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72">
         <v>1404</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>140404</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" t="s">
-        <v>267</v>
-      </c>
-      <c r="E72" t="s">
-        <v>414</v>
-      </c>
-      <c r="F72">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>150101</v>
       </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s">
+        <v>415</v>
+      </c>
+      <c r="E73">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>150102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
         <v>268</v>
       </c>
-      <c r="E73" t="s">
-        <v>415</v>
-      </c>
-      <c r="F73">
+      <c r="D74" t="s">
+        <v>416</v>
+      </c>
+      <c r="E74">
         <v>1501</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>150102</v>
-      </c>
-      <c r="C74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>150103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
         <v>268</v>
       </c>
-      <c r="E74" t="s">
-        <v>416</v>
-      </c>
-      <c r="F74">
+      <c r="D75" t="s">
+        <v>417</v>
+      </c>
+      <c r="E75">
         <v>1501</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>150103</v>
-      </c>
-      <c r="C75" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>150104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
         <v>268</v>
       </c>
-      <c r="E75" t="s">
-        <v>417</v>
-      </c>
-      <c r="F75">
+      <c r="D76" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76">
         <v>1501</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>150104</v>
-      </c>
-      <c r="C76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>150105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
         <v>268</v>
       </c>
-      <c r="E76" t="s">
-        <v>418</v>
-      </c>
-      <c r="F76">
+      <c r="D77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77">
         <v>1501</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>150105</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>268</v>
-      </c>
-      <c r="E77" t="s">
-        <v>419</v>
-      </c>
-      <c r="F77">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>150201</v>
       </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s">
+        <v>420</v>
+      </c>
+      <c r="E78">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>150202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
         <v>269</v>
       </c>
-      <c r="E78" t="s">
-        <v>420</v>
-      </c>
-      <c r="F78">
+      <c r="D79" t="s">
+        <v>421</v>
+      </c>
+      <c r="E79">
         <v>1502</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>150202</v>
-      </c>
-      <c r="C79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>150203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
         <v>269</v>
       </c>
-      <c r="E79" t="s">
-        <v>421</v>
-      </c>
-      <c r="F79">
+      <c r="D80" t="s">
+        <v>422</v>
+      </c>
+      <c r="E80">
         <v>1502</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>150203</v>
-      </c>
-      <c r="C80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" t="s">
-        <v>269</v>
-      </c>
-      <c r="E80" t="s">
-        <v>422</v>
-      </c>
-      <c r="F80">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>150301</v>
       </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" t="s">
         <v>423</v>
       </c>
-      <c r="F81">
+      <c r="E81">
         <v>1503</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>150302</v>
       </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" t="s">
         <v>424</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>1503</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>150303</v>
       </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
-      </c>
-      <c r="E83" t="s">
         <v>425</v>
       </c>
-      <c r="F83">
+      <c r="E83">
         <v>1503</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>150304</v>
       </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" t="s">
         <v>426</v>
       </c>
-      <c r="F84">
+      <c r="E84">
         <v>1503</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>150401</v>
       </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="D85" t="s">
-        <v>274</v>
-      </c>
-      <c r="E85" t="s">
         <v>427</v>
       </c>
-      <c r="F85">
+      <c r="E85">
         <v>1504</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>150402</v>
       </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
-      </c>
-      <c r="E86" t="s">
         <v>428</v>
       </c>
-      <c r="F86">
+      <c r="E86">
         <v>1504</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>150501</v>
       </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
-      </c>
-      <c r="E87" t="s">
         <v>429</v>
       </c>
-      <c r="F87">
+      <c r="E87">
         <v>1505</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>150502</v>
       </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
-      </c>
-      <c r="E88" t="s">
         <v>430</v>
       </c>
-      <c r="F88">
+      <c r="E88">
         <v>1505</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>150601</v>
       </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
+        <v>431</v>
+      </c>
+      <c r="E89">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>150602</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
         <v>278</v>
       </c>
-      <c r="E89" t="s">
-        <v>431</v>
-      </c>
-      <c r="F89">
+      <c r="D90" t="s">
+        <v>432</v>
+      </c>
+      <c r="E90">
         <v>1506</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>150602</v>
-      </c>
-      <c r="C90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>150603</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
         <v>278</v>
       </c>
-      <c r="E90" t="s">
-        <v>432</v>
-      </c>
-      <c r="F90">
+      <c r="D91" t="s">
+        <v>433</v>
+      </c>
+      <c r="E91">
         <v>1506</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>150603</v>
-      </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>150604</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
         <v>278</v>
       </c>
-      <c r="E91" t="s">
-        <v>433</v>
-      </c>
-      <c r="F91">
+      <c r="D92" t="s">
+        <v>434</v>
+      </c>
+      <c r="E92">
         <v>1506</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>150604</v>
-      </c>
-      <c r="C92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>150605</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
         <v>278</v>
       </c>
-      <c r="E92" t="s">
-        <v>434</v>
-      </c>
-      <c r="F92">
+      <c r="D93" t="s">
+        <v>435</v>
+      </c>
+      <c r="E93">
         <v>1506</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>150605</v>
-      </c>
-      <c r="C93" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" t="s">
-        <v>435</v>
-      </c>
-      <c r="F93">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>150701</v>
       </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="D94" t="s">
+        <v>436</v>
+      </c>
+      <c r="E94">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>150702</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
         <v>279</v>
       </c>
-      <c r="E94" t="s">
-        <v>436</v>
-      </c>
-      <c r="F94">
+      <c r="D95" t="s">
+        <v>437</v>
+      </c>
+      <c r="E95">
         <v>1507</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>150702</v>
-      </c>
-      <c r="C95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>150703</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
         <v>279</v>
       </c>
-      <c r="E95" t="s">
-        <v>437</v>
-      </c>
-      <c r="F95">
+      <c r="D96" t="s">
+        <v>438</v>
+      </c>
+      <c r="E96">
         <v>1507</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>150703</v>
-      </c>
-      <c r="C96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>150704</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
         <v>279</v>
       </c>
-      <c r="E96" t="s">
-        <v>438</v>
-      </c>
-      <c r="F96">
+      <c r="D97" t="s">
+        <v>439</v>
+      </c>
+      <c r="E97">
         <v>1507</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>150704</v>
-      </c>
-      <c r="C97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" t="s">
-        <v>279</v>
-      </c>
-      <c r="E97" t="s">
-        <v>439</v>
-      </c>
-      <c r="F97">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>200101</v>
       </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
+        <v>440</v>
+      </c>
+      <c r="E98">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>200102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
         <v>280</v>
       </c>
-      <c r="E98" t="s">
-        <v>440</v>
-      </c>
-      <c r="F98">
+      <c r="D99" t="s">
+        <v>441</v>
+      </c>
+      <c r="E99">
         <v>2001</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>200102</v>
-      </c>
-      <c r="C99" t="s">
-        <v>100</v>
-      </c>
-      <c r="D99" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>200103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
         <v>280</v>
       </c>
-      <c r="E99" t="s">
-        <v>441</v>
-      </c>
-      <c r="F99">
+      <c r="D100" t="s">
+        <v>442</v>
+      </c>
+      <c r="E100">
         <v>2001</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>200103</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>200104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
         <v>280</v>
       </c>
-      <c r="E100" t="s">
-        <v>442</v>
-      </c>
-      <c r="F100">
+      <c r="D101" t="s">
+        <v>443</v>
+      </c>
+      <c r="E101">
         <v>2001</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>200104</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>200105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
         <v>280</v>
       </c>
-      <c r="E101" t="s">
-        <v>443</v>
-      </c>
-      <c r="F101">
+      <c r="D102" t="s">
+        <v>444</v>
+      </c>
+      <c r="E102">
         <v>2001</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>200105</v>
-      </c>
-      <c r="C102" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>200106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
         <v>280</v>
       </c>
-      <c r="E102" t="s">
-        <v>444</v>
-      </c>
-      <c r="F102">
+      <c r="D103" t="s">
+        <v>445</v>
+      </c>
+      <c r="E103">
         <v>2001</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>200106</v>
-      </c>
-      <c r="C103" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>200107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
         <v>280</v>
       </c>
-      <c r="E103" t="s">
-        <v>445</v>
-      </c>
-      <c r="F103">
+      <c r="D104" t="s">
+        <v>446</v>
+      </c>
+      <c r="E104">
         <v>2001</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>200107</v>
-      </c>
-      <c r="C104" t="s">
-        <v>105</v>
-      </c>
-      <c r="D104" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>200108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
         <v>280</v>
       </c>
-      <c r="E104" t="s">
-        <v>446</v>
-      </c>
-      <c r="F104">
+      <c r="D105" t="s">
+        <v>447</v>
+      </c>
+      <c r="E105">
         <v>2001</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>200108</v>
-      </c>
-      <c r="C105" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>200109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
         <v>280</v>
       </c>
-      <c r="E105" t="s">
-        <v>447</v>
-      </c>
-      <c r="F105">
+      <c r="D106" t="s">
+        <v>448</v>
+      </c>
+      <c r="E106">
         <v>2001</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>200109</v>
-      </c>
-      <c r="C106" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>200110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
         <v>280</v>
       </c>
-      <c r="E106" t="s">
-        <v>448</v>
-      </c>
-      <c r="F106">
+      <c r="D107" t="s">
+        <v>449</v>
+      </c>
+      <c r="E107">
         <v>2001</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>200110</v>
-      </c>
-      <c r="C107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>200111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
         <v>280</v>
       </c>
-      <c r="E107" t="s">
-        <v>449</v>
-      </c>
-      <c r="F107">
+      <c r="D108" t="s">
+        <v>450</v>
+      </c>
+      <c r="E108">
         <v>2001</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>200111</v>
-      </c>
-      <c r="C108" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>200112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
         <v>280</v>
       </c>
-      <c r="E108" t="s">
-        <v>450</v>
-      </c>
-      <c r="F108">
+      <c r="D109" t="s">
+        <v>451</v>
+      </c>
+      <c r="E109">
         <v>2001</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>200112</v>
-      </c>
-      <c r="C109" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>200113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
         <v>280</v>
       </c>
-      <c r="E109" t="s">
-        <v>451</v>
-      </c>
-      <c r="F109">
+      <c r="D110" t="s">
+        <v>452</v>
+      </c>
+      <c r="E110">
         <v>2001</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>200113</v>
-      </c>
-      <c r="C110" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>200114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
         <v>280</v>
       </c>
-      <c r="E110" t="s">
-        <v>452</v>
-      </c>
-      <c r="F110">
+      <c r="D111" t="s">
+        <v>453</v>
+      </c>
+      <c r="E111">
         <v>2001</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>200114</v>
-      </c>
-      <c r="C111" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>200115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
         <v>280</v>
       </c>
-      <c r="E111" t="s">
-        <v>453</v>
-      </c>
-      <c r="F111">
+      <c r="D112" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112">
         <v>2001</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>200115</v>
-      </c>
-      <c r="C112" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>200116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
         <v>280</v>
       </c>
-      <c r="E112" t="s">
-        <v>454</v>
-      </c>
-      <c r="F112">
+      <c r="D113" t="s">
+        <v>455</v>
+      </c>
+      <c r="E113">
         <v>2001</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>200116</v>
-      </c>
-      <c r="C113" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>200117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
         <v>280</v>
       </c>
-      <c r="E113" t="s">
-        <v>455</v>
-      </c>
-      <c r="F113">
+      <c r="D114" t="s">
+        <v>456</v>
+      </c>
+      <c r="E114">
         <v>2001</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>200117</v>
-      </c>
-      <c r="C114" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>200118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
         <v>280</v>
       </c>
-      <c r="E114" t="s">
-        <v>456</v>
-      </c>
-      <c r="F114">
+      <c r="D115" t="s">
+        <v>457</v>
+      </c>
+      <c r="E115">
         <v>2001</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>200118</v>
-      </c>
-      <c r="C115" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>200119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
         <v>280</v>
       </c>
-      <c r="E115" t="s">
-        <v>457</v>
-      </c>
-      <c r="F115">
+      <c r="D116" t="s">
+        <v>458</v>
+      </c>
+      <c r="E116">
         <v>2001</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>200119</v>
-      </c>
-      <c r="C116" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>200120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
         <v>280</v>
       </c>
-      <c r="E116" t="s">
-        <v>458</v>
-      </c>
-      <c r="F116">
+      <c r="D117" t="s">
+        <v>459</v>
+      </c>
+      <c r="E117">
         <v>2001</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>200120</v>
-      </c>
-      <c r="C117" t="s">
-        <v>118</v>
-      </c>
-      <c r="D117" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>200121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
         <v>280</v>
       </c>
-      <c r="E117" t="s">
-        <v>459</v>
-      </c>
-      <c r="F117">
+      <c r="D118" t="s">
+        <v>460</v>
+      </c>
+      <c r="E118">
         <v>2001</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>200121</v>
-      </c>
-      <c r="C118" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>200122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
         <v>280</v>
       </c>
-      <c r="E118" t="s">
-        <v>460</v>
-      </c>
-      <c r="F118">
+      <c r="D119" t="s">
+        <v>461</v>
+      </c>
+      <c r="E119">
         <v>2001</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>200122</v>
-      </c>
-      <c r="C119" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>200123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
         <v>280</v>
       </c>
-      <c r="E119" t="s">
-        <v>461</v>
-      </c>
-      <c r="F119">
+      <c r="D120" t="s">
+        <v>462</v>
+      </c>
+      <c r="E120">
         <v>2001</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>200123</v>
-      </c>
-      <c r="C120" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>200124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
         <v>280</v>
       </c>
-      <c r="E120" t="s">
-        <v>462</v>
-      </c>
-      <c r="F120">
+      <c r="D121" t="s">
+        <v>463</v>
+      </c>
+      <c r="E121">
         <v>2001</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>200124</v>
-      </c>
-      <c r="C121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D121" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>200125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
         <v>280</v>
       </c>
-      <c r="E121" t="s">
-        <v>463</v>
-      </c>
-      <c r="F121">
+      <c r="D122" t="s">
+        <v>464</v>
+      </c>
+      <c r="E122">
         <v>2001</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>200125</v>
-      </c>
-      <c r="C122" t="s">
-        <v>123</v>
-      </c>
-      <c r="D122" t="s">
-        <v>280</v>
-      </c>
-      <c r="E122" t="s">
-        <v>464</v>
-      </c>
-      <c r="F122">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>200201</v>
       </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="D123" t="s">
-        <v>281</v>
-      </c>
-      <c r="E123" t="s">
         <v>465</v>
       </c>
-      <c r="F123">
+      <c r="E123">
         <v>2002</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>200202</v>
       </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
-        <v>282</v>
-      </c>
-      <c r="E124" t="s">
         <v>466</v>
       </c>
-      <c r="F124">
+      <c r="E124">
         <v>2002</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>200203</v>
       </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
       <c r="C125" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="D125" t="s">
-        <v>283</v>
-      </c>
-      <c r="E125" t="s">
         <v>467</v>
       </c>
-      <c r="F125">
+      <c r="E125">
         <v>2002</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>200301</v>
       </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
-        <v>284</v>
-      </c>
-      <c r="E126" t="s">
         <v>468</v>
       </c>
-      <c r="F126">
+      <c r="E126">
         <v>2003</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>200302</v>
       </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="D127" t="s">
-        <v>285</v>
-      </c>
-      <c r="E127" t="s">
         <v>469</v>
       </c>
-      <c r="F127">
+      <c r="E127">
         <v>2003</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>200303</v>
       </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="D128" t="s">
-        <v>286</v>
-      </c>
-      <c r="E128" t="s">
         <v>470</v>
       </c>
-      <c r="F128">
+      <c r="E128">
         <v>2003</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>200401</v>
       </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
       <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" t="s">
+        <v>471</v>
+      </c>
+      <c r="E129">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>200402</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>288</v>
+      </c>
+      <c r="D130" t="s">
+        <v>472</v>
+      </c>
+      <c r="E130">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>200501</v>
+      </c>
+      <c r="B131" t="s">
         <v>130</v>
       </c>
-      <c r="D129" t="s">
-        <v>287</v>
-      </c>
-      <c r="E129" t="s">
-        <v>471</v>
-      </c>
-      <c r="F129">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>200402</v>
-      </c>
-      <c r="C130" t="s">
-        <v>131</v>
-      </c>
-      <c r="D130" t="s">
-        <v>288</v>
-      </c>
-      <c r="E130" t="s">
-        <v>472</v>
-      </c>
-      <c r="F130">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>200501</v>
-      </c>
       <c r="C131" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="D131" t="s">
-        <v>289</v>
-      </c>
-      <c r="E131" t="s">
         <v>473</v>
       </c>
-      <c r="F131">
+      <c r="E131">
         <v>2005</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>200601</v>
       </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="D132" t="s">
-        <v>290</v>
-      </c>
-      <c r="E132" t="s">
         <v>474</v>
       </c>
-      <c r="F132">
+      <c r="E132">
         <v>2006</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>200701</v>
       </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="D133" t="s">
-        <v>291</v>
-      </c>
-      <c r="E133" t="s">
         <v>475</v>
       </c>
-      <c r="F133">
+      <c r="E133">
         <v>2007</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>200702</v>
       </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D134" t="s">
-        <v>292</v>
-      </c>
-      <c r="E134" t="s">
         <v>476</v>
       </c>
-      <c r="F134">
+      <c r="E134">
         <v>2007</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>200703</v>
       </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="D135" t="s">
-        <v>293</v>
-      </c>
-      <c r="E135" t="s">
         <v>477</v>
       </c>
-      <c r="F135">
+      <c r="E135">
         <v>2007</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>200704</v>
       </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="D136" t="s">
-        <v>294</v>
-      </c>
-      <c r="E136" t="s">
         <v>478</v>
       </c>
-      <c r="F136">
+      <c r="E136">
         <v>2007</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>220101</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
       </c>
       <c r="C137" t="s">
         <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>137</v>
-      </c>
-      <c r="E137" t="s">
         <v>479</v>
       </c>
-      <c r="F137">
+      <c r="E137">
         <v>2201</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>220102</v>
       </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="D138" t="s">
-        <v>295</v>
-      </c>
-      <c r="E138" t="s">
         <v>480</v>
       </c>
-      <c r="F138">
+      <c r="E138">
         <v>2201</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>220103</v>
       </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="D139" t="s">
-        <v>296</v>
-      </c>
-      <c r="E139" t="s">
         <v>481</v>
       </c>
-      <c r="F139">
+      <c r="E139">
         <v>2201</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>220104</v>
       </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="D140" t="s">
-        <v>297</v>
-      </c>
-      <c r="E140" t="s">
         <v>482</v>
       </c>
-      <c r="F140">
+      <c r="E140">
         <v>2201</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>220105</v>
       </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="D141" t="s">
-        <v>298</v>
-      </c>
-      <c r="E141" t="s">
         <v>483</v>
       </c>
-      <c r="F141">
+      <c r="E141">
         <v>2201</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>220106</v>
       </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
-      </c>
-      <c r="E142" t="s">
         <v>484</v>
       </c>
-      <c r="F142">
+      <c r="E142">
         <v>2201</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>220107</v>
       </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="D143" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" t="s">
         <v>485</v>
       </c>
-      <c r="F143">
+      <c r="E143">
         <v>2201</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>220108</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
       </c>
       <c r="C144" t="s">
         <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>144</v>
-      </c>
-      <c r="E144" t="s">
         <v>486</v>
       </c>
-      <c r="F144">
+      <c r="E144">
         <v>2201</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>220109</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
       </c>
       <c r="C145" t="s">
         <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" t="s">
         <v>487</v>
       </c>
-      <c r="F145">
+      <c r="E145">
         <v>2201</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>220110</v>
       </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="D146" t="s">
+        <v>488</v>
+      </c>
+      <c r="E146">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>220111</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
         <v>301</v>
       </c>
-      <c r="E146" t="s">
-        <v>488</v>
-      </c>
-      <c r="F146">
+      <c r="D147" t="s">
+        <v>489</v>
+      </c>
+      <c r="E147">
         <v>2201</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>220111</v>
-      </c>
-      <c r="C147" t="s">
-        <v>147</v>
-      </c>
-      <c r="D147" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>220112</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
         <v>301</v>
       </c>
-      <c r="E147" t="s">
-        <v>489</v>
-      </c>
-      <c r="F147">
+      <c r="D148" t="s">
+        <v>490</v>
+      </c>
+      <c r="E148">
         <v>2201</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>220112</v>
-      </c>
-      <c r="C148" t="s">
-        <v>148</v>
-      </c>
-      <c r="D148" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>220113</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
         <v>301</v>
       </c>
-      <c r="E148" t="s">
-        <v>490</v>
-      </c>
-      <c r="F148">
+      <c r="D149" t="s">
+        <v>491</v>
+      </c>
+      <c r="E149">
         <v>2201</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>220113</v>
-      </c>
-      <c r="C149" t="s">
-        <v>149</v>
-      </c>
-      <c r="D149" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>220114</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
         <v>301</v>
       </c>
-      <c r="E149" t="s">
-        <v>491</v>
-      </c>
-      <c r="F149">
+      <c r="D150" t="s">
+        <v>492</v>
+      </c>
+      <c r="E150">
         <v>2201</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>220114</v>
-      </c>
-      <c r="C150" t="s">
-        <v>150</v>
-      </c>
-      <c r="D150" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>220115</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
         <v>301</v>
       </c>
-      <c r="E150" t="s">
-        <v>492</v>
-      </c>
-      <c r="F150">
+      <c r="D151" t="s">
+        <v>493</v>
+      </c>
+      <c r="E151">
         <v>2201</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>220115</v>
-      </c>
-      <c r="C151" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>220116</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
         <v>301</v>
       </c>
-      <c r="E151" t="s">
-        <v>493</v>
-      </c>
-      <c r="F151">
+      <c r="D152" t="s">
+        <v>494</v>
+      </c>
+      <c r="E152">
         <v>2201</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>220116</v>
-      </c>
-      <c r="C152" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>220117</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
         <v>301</v>
       </c>
-      <c r="E152" t="s">
-        <v>494</v>
-      </c>
-      <c r="F152">
+      <c r="D153" t="s">
+        <v>495</v>
+      </c>
+      <c r="E153">
         <v>2201</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>220117</v>
-      </c>
-      <c r="C153" t="s">
-        <v>153</v>
-      </c>
-      <c r="D153" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>220118</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
         <v>301</v>
       </c>
-      <c r="E153" t="s">
-        <v>495</v>
-      </c>
-      <c r="F153">
+      <c r="D154" t="s">
+        <v>496</v>
+      </c>
+      <c r="E154">
         <v>2201</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>220118</v>
-      </c>
-      <c r="C154" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>220119</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
         <v>301</v>
       </c>
-      <c r="E154" t="s">
-        <v>496</v>
-      </c>
-      <c r="F154">
+      <c r="D155" t="s">
+        <v>497</v>
+      </c>
+      <c r="E155">
         <v>2201</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>220119</v>
-      </c>
-      <c r="C155" t="s">
-        <v>155</v>
-      </c>
-      <c r="D155" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>220120</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
         <v>301</v>
       </c>
-      <c r="E155" t="s">
-        <v>497</v>
-      </c>
-      <c r="F155">
+      <c r="D156" t="s">
+        <v>498</v>
+      </c>
+      <c r="E156">
         <v>2201</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>220120</v>
-      </c>
-      <c r="C156" t="s">
-        <v>156</v>
-      </c>
-      <c r="D156" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>220121</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
         <v>301</v>
       </c>
-      <c r="E156" t="s">
-        <v>498</v>
-      </c>
-      <c r="F156">
+      <c r="D157" t="s">
+        <v>499</v>
+      </c>
+      <c r="E157">
         <v>2201</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>220121</v>
-      </c>
-      <c r="C157" t="s">
-        <v>157</v>
-      </c>
-      <c r="D157" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>220122</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
         <v>301</v>
       </c>
-      <c r="E157" t="s">
-        <v>499</v>
-      </c>
-      <c r="F157">
+      <c r="D158" t="s">
+        <v>500</v>
+      </c>
+      <c r="E158">
         <v>2201</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>220122</v>
-      </c>
-      <c r="C158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>220123</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
         <v>301</v>
       </c>
-      <c r="E158" t="s">
-        <v>500</v>
-      </c>
-      <c r="F158">
+      <c r="D159" t="s">
+        <v>501</v>
+      </c>
+      <c r="E159">
         <v>2201</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>220123</v>
-      </c>
-      <c r="C159" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>220124</v>
+      </c>
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
         <v>301</v>
       </c>
-      <c r="E159" t="s">
-        <v>501</v>
-      </c>
-      <c r="F159">
+      <c r="D160" t="s">
+        <v>502</v>
+      </c>
+      <c r="E160">
         <v>2201</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>220124</v>
-      </c>
-      <c r="C160" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>220125</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
         <v>301</v>
       </c>
-      <c r="E160" t="s">
-        <v>502</v>
-      </c>
-      <c r="F160">
+      <c r="D161" t="s">
+        <v>503</v>
+      </c>
+      <c r="E161">
         <v>2201</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>220125</v>
-      </c>
-      <c r="C161" t="s">
-        <v>160</v>
-      </c>
-      <c r="D161" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>220126</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
         <v>301</v>
       </c>
-      <c r="E161" t="s">
-        <v>503</v>
-      </c>
-      <c r="F161">
+      <c r="D162" t="s">
+        <v>504</v>
+      </c>
+      <c r="E162">
         <v>2201</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>220126</v>
-      </c>
-      <c r="C162" t="s">
-        <v>161</v>
-      </c>
-      <c r="D162" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>220127</v>
+      </c>
+      <c r="B163" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
         <v>301</v>
       </c>
-      <c r="E162" t="s">
-        <v>504</v>
-      </c>
-      <c r="F162">
+      <c r="D163" t="s">
+        <v>505</v>
+      </c>
+      <c r="E163">
         <v>2201</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>220127</v>
-      </c>
-      <c r="C163" t="s">
-        <v>162</v>
-      </c>
-      <c r="D163" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>220128</v>
+      </c>
+      <c r="B164" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
         <v>301</v>
       </c>
-      <c r="E163" t="s">
-        <v>505</v>
-      </c>
-      <c r="F163">
+      <c r="D164" t="s">
+        <v>506</v>
+      </c>
+      <c r="E164">
         <v>2201</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>220128</v>
-      </c>
-      <c r="C164" t="s">
-        <v>163</v>
-      </c>
-      <c r="D164" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>220129</v>
+      </c>
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
         <v>301</v>
       </c>
-      <c r="E164" t="s">
-        <v>506</v>
-      </c>
-      <c r="F164">
+      <c r="D165" t="s">
+        <v>507</v>
+      </c>
+      <c r="E165">
         <v>2201</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>220129</v>
-      </c>
-      <c r="C165" t="s">
-        <v>164</v>
-      </c>
-      <c r="D165" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>220130</v>
+      </c>
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
         <v>301</v>
       </c>
-      <c r="E165" t="s">
-        <v>507</v>
-      </c>
-      <c r="F165">
+      <c r="D166" t="s">
+        <v>508</v>
+      </c>
+      <c r="E166">
         <v>2201</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>220130</v>
-      </c>
-      <c r="C166" t="s">
-        <v>165</v>
-      </c>
-      <c r="D166" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>220131</v>
+      </c>
+      <c r="B167" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
         <v>301</v>
       </c>
-      <c r="E166" t="s">
-        <v>508</v>
-      </c>
-      <c r="F166">
+      <c r="D167" t="s">
+        <v>509</v>
+      </c>
+      <c r="E167">
         <v>2201</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>220131</v>
-      </c>
-      <c r="C167" t="s">
-        <v>166</v>
-      </c>
-      <c r="D167" t="s">
-        <v>301</v>
-      </c>
-      <c r="E167" t="s">
-        <v>509</v>
-      </c>
-      <c r="F167">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>220201</v>
+      </c>
+      <c r="B168" t="s">
+        <v>167</v>
       </c>
       <c r="C168" t="s">
         <v>167</v>
       </c>
       <c r="D168" t="s">
-        <v>167</v>
-      </c>
-      <c r="E168" t="s">
         <v>510</v>
       </c>
-      <c r="F168">
+      <c r="E168">
         <v>2202</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>220202</v>
+      </c>
+      <c r="B169" t="s">
+        <v>168</v>
       </c>
       <c r="C169" t="s">
         <v>168</v>
       </c>
       <c r="D169" t="s">
-        <v>168</v>
-      </c>
-      <c r="E169" t="s">
         <v>511</v>
       </c>
-      <c r="F169">
+      <c r="E169">
         <v>2202</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>220203</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
       </c>
       <c r="C170" t="s">
         <v>169</v>
       </c>
       <c r="D170" t="s">
+        <v>512</v>
+      </c>
+      <c r="E170">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>220204</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
         <v>169</v>
       </c>
-      <c r="E170" t="s">
-        <v>512</v>
-      </c>
-      <c r="F170">
+      <c r="D171" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171">
         <v>2202</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>220205</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
         <v>169</v>
       </c>
-      <c r="B171">
-        <v>220204</v>
-      </c>
-      <c r="C171" t="s">
-        <v>170</v>
-      </c>
-      <c r="D171" t="s">
-        <v>169</v>
-      </c>
-      <c r="E171" t="s">
-        <v>513</v>
-      </c>
-      <c r="F171">
+      <c r="D172" t="s">
+        <v>514</v>
+      </c>
+      <c r="E172">
         <v>2202</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>220205</v>
-      </c>
-      <c r="C172" t="s">
-        <v>171</v>
-      </c>
-      <c r="D172" t="s">
-        <v>169</v>
-      </c>
-      <c r="E172" t="s">
-        <v>514</v>
-      </c>
-      <c r="F172">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>220206</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>302</v>
+      </c>
+      <c r="D173" t="s">
+        <v>515</v>
+      </c>
+      <c r="E173">
         <v>2202</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>220206</v>
-      </c>
-      <c r="C173" t="s">
-        <v>172</v>
-      </c>
-      <c r="D173" t="s">
-        <v>302</v>
-      </c>
-      <c r="E173" t="s">
-        <v>515</v>
-      </c>
-      <c r="F173">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>220207</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>303</v>
+      </c>
+      <c r="D174" t="s">
+        <v>516</v>
+      </c>
+      <c r="E174">
         <v>2202</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>220207</v>
-      </c>
-      <c r="C174" t="s">
-        <v>173</v>
-      </c>
-      <c r="D174" t="s">
-        <v>303</v>
-      </c>
-      <c r="E174" t="s">
-        <v>516</v>
-      </c>
-      <c r="F174">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>220208</v>
+      </c>
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>304</v>
+      </c>
+      <c r="D175" t="s">
+        <v>517</v>
+      </c>
+      <c r="E175">
         <v>2202</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>220208</v>
-      </c>
-      <c r="C175" t="s">
-        <v>174</v>
-      </c>
-      <c r="D175" t="s">
-        <v>304</v>
-      </c>
-      <c r="E175" t="s">
-        <v>517</v>
-      </c>
-      <c r="F175">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>220209</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>305</v>
+      </c>
+      <c r="D176" t="s">
+        <v>518</v>
+      </c>
+      <c r="E176">
         <v>2202</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>220209</v>
-      </c>
-      <c r="C176" t="s">
-        <v>175</v>
-      </c>
-      <c r="D176" t="s">
-        <v>305</v>
-      </c>
-      <c r="E176" t="s">
-        <v>518</v>
-      </c>
-      <c r="F176">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>220210</v>
+      </c>
+      <c r="B177" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>306</v>
+      </c>
+      <c r="D177" t="s">
+        <v>519</v>
+      </c>
+      <c r="E177">
         <v>2202</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>220210</v>
-      </c>
-      <c r="C177" t="s">
-        <v>176</v>
-      </c>
-      <c r="D177" t="s">
-        <v>306</v>
-      </c>
-      <c r="E177" t="s">
-        <v>519</v>
-      </c>
-      <c r="F177">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>220301</v>
+      </c>
+      <c r="B178" t="s">
+        <v>177</v>
       </c>
       <c r="C178" t="s">
         <v>177</v>
       </c>
       <c r="D178" t="s">
-        <v>177</v>
-      </c>
-      <c r="E178" t="s">
         <v>520</v>
       </c>
-      <c r="F178">
+      <c r="E178">
         <v>2203</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>220302</v>
+      </c>
+      <c r="B179" t="s">
+        <v>178</v>
       </c>
       <c r="C179" t="s">
         <v>178</v>
       </c>
       <c r="D179" t="s">
-        <v>178</v>
-      </c>
-      <c r="E179" t="s">
         <v>521</v>
       </c>
-      <c r="F179">
+      <c r="E179">
         <v>2203</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>220303</v>
+      </c>
+      <c r="B180" t="s">
+        <v>179</v>
       </c>
       <c r="C180" t="s">
         <v>179</v>
       </c>
       <c r="D180" t="s">
-        <v>179</v>
-      </c>
-      <c r="E180" t="s">
         <v>522</v>
       </c>
-      <c r="F180">
+      <c r="E180">
         <v>2203</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>220304</v>
+      </c>
+      <c r="B181" t="s">
+        <v>129</v>
       </c>
       <c r="C181" t="s">
         <v>129</v>
       </c>
       <c r="D181" t="s">
-        <v>129</v>
-      </c>
-      <c r="E181" t="s">
         <v>523</v>
       </c>
-      <c r="F181">
+      <c r="E181">
         <v>2203</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>220305</v>
+      </c>
+      <c r="B182" t="s">
         <v>180</v>
-      </c>
-      <c r="B182">
-        <v>220305</v>
       </c>
       <c r="C182" t="s">
         <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>180</v>
-      </c>
-      <c r="E182" t="s">
         <v>524</v>
       </c>
-      <c r="F182">
+      <c r="E182">
         <v>2203</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>220306</v>
+      </c>
+      <c r="B183" t="s">
         <v>181</v>
       </c>
-      <c r="B183">
-        <v>220306</v>
-      </c>
       <c r="C183" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="D183" t="s">
-        <v>307</v>
-      </c>
-      <c r="E183" t="s">
         <v>525</v>
       </c>
-      <c r="F183">
+      <c r="E183">
         <v>2203</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>220307</v>
+      </c>
+      <c r="B184" t="s">
         <v>182</v>
       </c>
-      <c r="B184">
-        <v>220307</v>
-      </c>
       <c r="C184" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="D184" t="s">
-        <v>308</v>
-      </c>
-      <c r="E184" t="s">
         <v>526</v>
       </c>
-      <c r="F184">
+      <c r="E184">
         <v>2203</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="1">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>220308</v>
+      </c>
+      <c r="B185" t="s">
         <v>183</v>
       </c>
-      <c r="B185">
-        <v>220308</v>
-      </c>
       <c r="C185" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="D185" t="s">
-        <v>309</v>
-      </c>
-      <c r="E185" t="s">
         <v>527</v>
       </c>
-      <c r="F185">
+      <c r="E185">
         <v>2203</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="1">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>220401</v>
+      </c>
+      <c r="B186" t="s">
         <v>184</v>
       </c>
-      <c r="B186">
-        <v>220401</v>
-      </c>
       <c r="C186" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="D186" t="s">
-        <v>310</v>
-      </c>
-      <c r="E186" t="s">
         <v>528</v>
       </c>
-      <c r="F186">
+      <c r="E186">
         <v>2204</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="1">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>220402</v>
+      </c>
+      <c r="B187" t="s">
         <v>185</v>
       </c>
-      <c r="B187">
-        <v>220402</v>
-      </c>
       <c r="C187" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="D187" t="s">
-        <v>311</v>
-      </c>
-      <c r="E187" t="s">
         <v>529</v>
       </c>
-      <c r="F187">
+      <c r="E187">
         <v>2204</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="1">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>220403</v>
+      </c>
+      <c r="B188" t="s">
         <v>186</v>
       </c>
-      <c r="B188">
-        <v>220403</v>
-      </c>
       <c r="C188" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="D188" t="s">
-        <v>312</v>
-      </c>
-      <c r="E188" t="s">
         <v>530</v>
       </c>
-      <c r="F188">
+      <c r="E188">
         <v>2204</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="1">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>220404</v>
+      </c>
+      <c r="B189" t="s">
         <v>187</v>
       </c>
-      <c r="B189">
-        <v>220404</v>
-      </c>
       <c r="C189" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="D189" t="s">
-        <v>313</v>
-      </c>
-      <c r="E189" t="s">
         <v>531</v>
       </c>
-      <c r="F189">
+      <c r="E189">
         <v>2204</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="1">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>220405</v>
+      </c>
+      <c r="B190" t="s">
         <v>188</v>
       </c>
-      <c r="B190">
-        <v>220405</v>
-      </c>
       <c r="C190" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="D190" t="s">
-        <v>314</v>
-      </c>
-      <c r="E190" t="s">
         <v>532</v>
       </c>
-      <c r="F190">
+      <c r="E190">
         <v>2204</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>220406</v>
+      </c>
+      <c r="B191" t="s">
         <v>189</v>
       </c>
-      <c r="B191">
-        <v>220406</v>
-      </c>
       <c r="C191" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="D191" t="s">
-        <v>315</v>
-      </c>
-      <c r="E191" t="s">
         <v>533</v>
       </c>
-      <c r="F191">
+      <c r="E191">
         <v>2204</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>220407</v>
+      </c>
+      <c r="B192" t="s">
         <v>190</v>
       </c>
-      <c r="B192">
-        <v>220407</v>
-      </c>
       <c r="C192" t="s">
-        <v>190</v>
+        <v>316</v>
       </c>
       <c r="D192" t="s">
-        <v>316</v>
-      </c>
-      <c r="E192" t="s">
         <v>534</v>
       </c>
-      <c r="F192">
+      <c r="E192">
         <v>2204</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="1">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>220501</v>
+      </c>
+      <c r="B193" t="s">
         <v>191</v>
       </c>
-      <c r="B193">
-        <v>220501</v>
-      </c>
       <c r="C193" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="D193" t="s">
-        <v>317</v>
-      </c>
-      <c r="E193" t="s">
         <v>535</v>
       </c>
-      <c r="F193">
+      <c r="E193">
         <v>2205</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="1">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>220502</v>
+      </c>
+      <c r="B194" t="s">
         <v>192</v>
       </c>
-      <c r="B194">
-        <v>220502</v>
-      </c>
       <c r="C194" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="D194" t="s">
-        <v>318</v>
-      </c>
-      <c r="E194" t="s">
         <v>536</v>
       </c>
-      <c r="F194">
+      <c r="E194">
         <v>2205</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="1">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>220503</v>
+      </c>
+      <c r="B195" t="s">
         <v>193</v>
       </c>
-      <c r="B195">
-        <v>220503</v>
-      </c>
       <c r="C195" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="D195" t="s">
-        <v>319</v>
-      </c>
-      <c r="E195" t="s">
         <v>537</v>
       </c>
-      <c r="F195">
+      <c r="E195">
         <v>2205</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="1">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>220601</v>
+      </c>
+      <c r="B196" t="s">
         <v>194</v>
       </c>
-      <c r="B196">
-        <v>220601</v>
-      </c>
       <c r="C196" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="D196" t="s">
-        <v>320</v>
-      </c>
-      <c r="E196" t="s">
         <v>538</v>
       </c>
-      <c r="F196">
+      <c r="E196">
         <v>2206</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="1">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>220602</v>
+      </c>
+      <c r="B197" t="s">
         <v>195</v>
-      </c>
-      <c r="B197">
-        <v>220602</v>
       </c>
       <c r="C197" t="s">
         <v>195</v>
       </c>
       <c r="D197" t="s">
-        <v>195</v>
-      </c>
-      <c r="E197" t="s">
         <v>539</v>
       </c>
-      <c r="F197">
+      <c r="E197">
         <v>2206</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="1">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>220603</v>
+      </c>
+      <c r="B198" t="s">
         <v>196</v>
       </c>
-      <c r="B198">
-        <v>220603</v>
-      </c>
       <c r="C198" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="D198" t="s">
-        <v>321</v>
-      </c>
-      <c r="E198" t="s">
         <v>540</v>
       </c>
-      <c r="F198">
+      <c r="E198">
         <v>2206</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="1">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>220604</v>
+      </c>
+      <c r="B199" t="s">
         <v>197</v>
       </c>
-      <c r="B199">
-        <v>220604</v>
-      </c>
       <c r="C199" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="D199" t="s">
-        <v>322</v>
-      </c>
-      <c r="E199" t="s">
         <v>541</v>
       </c>
-      <c r="F199">
+      <c r="E199">
         <v>2206</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="1">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>220605</v>
+      </c>
+      <c r="B200" t="s">
         <v>198</v>
       </c>
-      <c r="B200">
-        <v>220605</v>
-      </c>
       <c r="C200" t="s">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="D200" t="s">
-        <v>323</v>
-      </c>
-      <c r="E200" t="s">
         <v>542</v>
       </c>
-      <c r="F200">
+      <c r="E200">
         <v>2206</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="1">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>220606</v>
+      </c>
+      <c r="B201" t="s">
         <v>199</v>
       </c>
-      <c r="B201">
-        <v>220606</v>
-      </c>
       <c r="C201" t="s">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="D201" t="s">
+        <v>543</v>
+      </c>
+      <c r="E201">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>220607</v>
+      </c>
+      <c r="B202" t="s">
+        <v>200</v>
+      </c>
+      <c r="C202" t="s">
         <v>324</v>
       </c>
-      <c r="E201" t="s">
-        <v>543</v>
-      </c>
-      <c r="F201">
+      <c r="D202" t="s">
+        <v>544</v>
+      </c>
+      <c r="E202">
         <v>2206</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>220607</v>
-      </c>
-      <c r="C202" t="s">
-        <v>200</v>
-      </c>
-      <c r="D202" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>220608</v>
+      </c>
+      <c r="B203" t="s">
+        <v>201</v>
+      </c>
+      <c r="C203" t="s">
         <v>324</v>
       </c>
-      <c r="E202" t="s">
-        <v>544</v>
-      </c>
-      <c r="F202">
+      <c r="D203" t="s">
+        <v>545</v>
+      </c>
+      <c r="E203">
         <v>2206</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>220608</v>
-      </c>
-      <c r="C203" t="s">
-        <v>201</v>
-      </c>
-      <c r="D203" t="s">
-        <v>324</v>
-      </c>
-      <c r="E203" t="s">
-        <v>545</v>
-      </c>
-      <c r="F203">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>220609</v>
+      </c>
+      <c r="B204" t="s">
+        <v>202</v>
+      </c>
+      <c r="C204" t="s">
+        <v>325</v>
+      </c>
+      <c r="D204" t="s">
+        <v>546</v>
+      </c>
+      <c r="E204">
         <v>2206</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>220609</v>
-      </c>
-      <c r="C204" t="s">
-        <v>202</v>
-      </c>
-      <c r="D204" t="s">
-        <v>325</v>
-      </c>
-      <c r="E204" t="s">
-        <v>546</v>
-      </c>
-      <c r="F204">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="1">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>220701</v>
+      </c>
+      <c r="B205" t="s">
         <v>203</v>
       </c>
-      <c r="B205">
-        <v>220701</v>
-      </c>
       <c r="C205" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="D205" t="s">
+        <v>547</v>
+      </c>
+      <c r="E205">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>220702</v>
+      </c>
+      <c r="B206" t="s">
+        <v>204</v>
+      </c>
+      <c r="C206" t="s">
         <v>326</v>
       </c>
-      <c r="E205" t="s">
-        <v>547</v>
-      </c>
-      <c r="F205">
+      <c r="D206" t="s">
+        <v>548</v>
+      </c>
+      <c r="E206">
         <v>2207</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>220702</v>
-      </c>
-      <c r="C206" t="s">
-        <v>204</v>
-      </c>
-      <c r="D206" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>220703</v>
+      </c>
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" t="s">
         <v>326</v>
       </c>
-      <c r="E206" t="s">
-        <v>548</v>
-      </c>
-      <c r="F206">
+      <c r="D207" t="s">
+        <v>549</v>
+      </c>
+      <c r="E207">
         <v>2207</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>220703</v>
-      </c>
-      <c r="C207" t="s">
-        <v>205</v>
-      </c>
-      <c r="D207" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>220704</v>
+      </c>
+      <c r="B208" t="s">
+        <v>206</v>
+      </c>
+      <c r="C208" t="s">
         <v>326</v>
       </c>
-      <c r="E207" t="s">
-        <v>549</v>
-      </c>
-      <c r="F207">
+      <c r="D208" t="s">
+        <v>550</v>
+      </c>
+      <c r="E208">
         <v>2207</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>220704</v>
-      </c>
-      <c r="C208" t="s">
-        <v>206</v>
-      </c>
-      <c r="D208" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>220705</v>
+      </c>
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" t="s">
         <v>326</v>
       </c>
-      <c r="E208" t="s">
-        <v>550</v>
-      </c>
-      <c r="F208">
+      <c r="D209" t="s">
+        <v>551</v>
+      </c>
+      <c r="E209">
         <v>2207</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>220705</v>
-      </c>
-      <c r="C209" t="s">
-        <v>207</v>
-      </c>
-      <c r="D209" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>220706</v>
+      </c>
+      <c r="B210" t="s">
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
         <v>326</v>
       </c>
-      <c r="E209" t="s">
-        <v>551</v>
-      </c>
-      <c r="F209">
+      <c r="D210" t="s">
+        <v>552</v>
+      </c>
+      <c r="E210">
         <v>2207</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>220706</v>
-      </c>
-      <c r="C210" t="s">
-        <v>208</v>
-      </c>
-      <c r="D210" t="s">
-        <v>326</v>
-      </c>
-      <c r="E210" t="s">
-        <v>552</v>
-      </c>
-      <c r="F210">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>220801</v>
+      </c>
+      <c r="B211" t="s">
         <v>209</v>
       </c>
-      <c r="B211">
-        <v>220801</v>
-      </c>
       <c r="C211" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="D211" t="s">
-        <v>327</v>
-      </c>
-      <c r="E211" t="s">
         <v>553</v>
       </c>
-      <c r="F211">
+      <c r="E211">
         <v>2208</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>220802</v>
+      </c>
+      <c r="B212" t="s">
         <v>210</v>
       </c>
-      <c r="B212">
-        <v>220802</v>
-      </c>
       <c r="C212" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="D212" t="s">
-        <v>260</v>
-      </c>
-      <c r="E212" t="s">
         <v>554</v>
       </c>
-      <c r="F212">
+      <c r="E212">
         <v>2208</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>220803</v>
+      </c>
+      <c r="B213" t="s">
         <v>211</v>
       </c>
-      <c r="B213">
-        <v>220803</v>
-      </c>
       <c r="C213" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="D213" t="s">
-        <v>328</v>
-      </c>
-      <c r="E213" t="s">
         <v>555</v>
       </c>
-      <c r="F213">
+      <c r="E213">
         <v>2208</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>220901</v>
+      </c>
+      <c r="B214" t="s">
         <v>212</v>
       </c>
-      <c r="B214">
-        <v>220901</v>
-      </c>
       <c r="C214" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="D214" t="s">
-        <v>329</v>
-      </c>
-      <c r="E214" t="s">
         <v>556</v>
       </c>
-      <c r="F214">
+      <c r="E214">
         <v>2209</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>240101</v>
+      </c>
+      <c r="B215" t="s">
         <v>213</v>
       </c>
-      <c r="B215">
-        <v>240101</v>
-      </c>
       <c r="C215" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="D215" t="s">
-        <v>330</v>
-      </c>
-      <c r="E215" t="s">
         <v>557</v>
       </c>
-      <c r="F215">
+      <c r="E215">
         <v>2401</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>240102</v>
+      </c>
+      <c r="B216" t="s">
         <v>214</v>
       </c>
-      <c r="B216">
-        <v>240102</v>
-      </c>
       <c r="C216" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="D216" t="s">
-        <v>331</v>
-      </c>
-      <c r="E216" t="s">
         <v>558</v>
       </c>
-      <c r="F216">
+      <c r="E216">
         <v>2401</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>240103</v>
+      </c>
+      <c r="B217" t="s">
         <v>215</v>
       </c>
-      <c r="B217">
-        <v>240103</v>
-      </c>
       <c r="C217" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="D217" t="s">
-        <v>332</v>
-      </c>
-      <c r="E217" t="s">
         <v>559</v>
       </c>
-      <c r="F217">
+      <c r="E217">
         <v>2401</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>240201</v>
+      </c>
+      <c r="B218" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" t="s">
+        <v>333</v>
+      </c>
+      <c r="D218" t="s">
+        <v>560</v>
+      </c>
+      <c r="E218">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>240202</v>
+      </c>
+      <c r="B219" t="s">
         <v>216</v>
       </c>
-      <c r="B218">
-        <v>240201</v>
-      </c>
-      <c r="C218" t="s">
-        <v>62</v>
-      </c>
-      <c r="D218" t="s">
-        <v>333</v>
-      </c>
-      <c r="E218" t="s">
-        <v>560</v>
-      </c>
-      <c r="F218">
+      <c r="C219" t="s">
+        <v>334</v>
+      </c>
+      <c r="D219" t="s">
+        <v>561</v>
+      </c>
+      <c r="E219">
         <v>2402</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>240203</v>
+      </c>
+      <c r="B220" t="s">
         <v>217</v>
       </c>
-      <c r="B219">
-        <v>240202</v>
-      </c>
-      <c r="C219" t="s">
-        <v>216</v>
-      </c>
-      <c r="D219" t="s">
-        <v>334</v>
-      </c>
-      <c r="E219" t="s">
-        <v>561</v>
-      </c>
-      <c r="F219">
+      <c r="C220" t="s">
+        <v>335</v>
+      </c>
+      <c r="D220" t="s">
+        <v>562</v>
+      </c>
+      <c r="E220">
         <v>2402</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>240204</v>
+      </c>
+      <c r="B221" t="s">
         <v>218</v>
       </c>
-      <c r="B220">
-        <v>240203</v>
-      </c>
-      <c r="C220" t="s">
-        <v>217</v>
-      </c>
-      <c r="D220" t="s">
-        <v>335</v>
-      </c>
-      <c r="E220" t="s">
-        <v>562</v>
-      </c>
-      <c r="F220">
+      <c r="C221" t="s">
+        <v>336</v>
+      </c>
+      <c r="D221" t="s">
+        <v>563</v>
+      </c>
+      <c r="E221">
         <v>2402</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>240205</v>
+      </c>
+      <c r="B222" t="s">
         <v>219</v>
       </c>
-      <c r="B221">
-        <v>240204</v>
-      </c>
-      <c r="C221" t="s">
-        <v>218</v>
-      </c>
-      <c r="D221" t="s">
-        <v>336</v>
-      </c>
-      <c r="E221" t="s">
-        <v>563</v>
-      </c>
-      <c r="F221">
+      <c r="C222" t="s">
+        <v>337</v>
+      </c>
+      <c r="D222" t="s">
+        <v>564</v>
+      </c>
+      <c r="E222">
         <v>2402</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>240301</v>
+      </c>
+      <c r="B223" t="s">
         <v>220</v>
       </c>
-      <c r="B222">
-        <v>240205</v>
-      </c>
-      <c r="C222" t="s">
-        <v>219</v>
-      </c>
-      <c r="D222" t="s">
-        <v>337</v>
-      </c>
-      <c r="E222" t="s">
-        <v>564</v>
-      </c>
-      <c r="F222">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
+      <c r="C223" t="s">
+        <v>338</v>
+      </c>
+      <c r="D223" t="s">
+        <v>565</v>
+      </c>
+      <c r="E223">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>240302</v>
+      </c>
+      <c r="B224" t="s">
         <v>221</v>
       </c>
-      <c r="B223">
-        <v>240301</v>
-      </c>
-      <c r="C223" t="s">
-        <v>220</v>
-      </c>
-      <c r="D223" t="s">
-        <v>338</v>
-      </c>
-      <c r="E223" t="s">
-        <v>565</v>
-      </c>
-      <c r="F223">
+      <c r="C224" t="s">
+        <v>339</v>
+      </c>
+      <c r="D224" t="s">
+        <v>566</v>
+      </c>
+      <c r="E224">
         <v>2403</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>240303</v>
+      </c>
+      <c r="B225" t="s">
         <v>222</v>
       </c>
-      <c r="B224">
-        <v>240302</v>
-      </c>
-      <c r="C224" t="s">
-        <v>221</v>
-      </c>
-      <c r="D224" t="s">
-        <v>339</v>
-      </c>
-      <c r="E224" t="s">
-        <v>566</v>
-      </c>
-      <c r="F224">
+      <c r="C225" t="s">
+        <v>249</v>
+      </c>
+      <c r="D225" t="s">
+        <v>567</v>
+      </c>
+      <c r="E225">
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>240401</v>
+      </c>
+      <c r="B226" t="s">
         <v>223</v>
       </c>
-      <c r="B225">
-        <v>240303</v>
-      </c>
-      <c r="C225" t="s">
-        <v>222</v>
-      </c>
-      <c r="D225" t="s">
-        <v>249</v>
-      </c>
-      <c r="E225" t="s">
-        <v>567</v>
-      </c>
-      <c r="F225">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
+      <c r="C226" t="s">
+        <v>91</v>
+      </c>
+      <c r="D226" t="s">
+        <v>568</v>
+      </c>
+      <c r="E226">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>240501</v>
+      </c>
+      <c r="B227" t="s">
         <v>224</v>
       </c>
-      <c r="B226">
-        <v>240401</v>
-      </c>
-      <c r="C226" t="s">
-        <v>223</v>
-      </c>
-      <c r="D226" t="s">
-        <v>91</v>
-      </c>
-      <c r="E226" t="s">
-        <v>568</v>
-      </c>
-      <c r="F226">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
+      <c r="C227" t="s">
+        <v>340</v>
+      </c>
+      <c r="D227" t="s">
+        <v>569</v>
+      </c>
+      <c r="E227">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>240601</v>
+      </c>
+      <c r="B228" t="s">
         <v>225</v>
       </c>
-      <c r="B227">
-        <v>240501</v>
-      </c>
-      <c r="C227" t="s">
-        <v>224</v>
-      </c>
-      <c r="D227" t="s">
-        <v>340</v>
-      </c>
-      <c r="E227" t="s">
-        <v>569</v>
-      </c>
-      <c r="F227">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
+      <c r="C228" t="s">
+        <v>341</v>
+      </c>
+      <c r="D228" t="s">
+        <v>570</v>
+      </c>
+      <c r="E228">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>240602</v>
+      </c>
+      <c r="B229" t="s">
         <v>226</v>
       </c>
-      <c r="B228">
-        <v>240601</v>
-      </c>
-      <c r="C228" t="s">
-        <v>225</v>
-      </c>
-      <c r="D228" t="s">
-        <v>341</v>
-      </c>
-      <c r="E228" t="s">
-        <v>570</v>
-      </c>
-      <c r="F228">
+      <c r="C229" t="s">
+        <v>342</v>
+      </c>
+      <c r="D229" t="s">
+        <v>571</v>
+      </c>
+      <c r="E229">
         <v>2406</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>240603</v>
+      </c>
+      <c r="B230" t="s">
         <v>227</v>
       </c>
-      <c r="B229">
-        <v>240602</v>
-      </c>
-      <c r="C229" t="s">
-        <v>226</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="C230" t="s">
         <v>342</v>
       </c>
-      <c r="E229" t="s">
-        <v>571</v>
-      </c>
-      <c r="F229">
+      <c r="D230" t="s">
+        <v>572</v>
+      </c>
+      <c r="E230">
         <v>2406</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>270101</v>
+      </c>
+      <c r="B231" t="s">
+        <v>150</v>
+      </c>
+      <c r="C231" t="s">
+        <v>301</v>
+      </c>
+      <c r="D231" t="s">
+        <v>573</v>
+      </c>
+      <c r="E231">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>270102</v>
+      </c>
+      <c r="B232" t="s">
         <v>228</v>
       </c>
-      <c r="B230">
-        <v>240603</v>
-      </c>
-      <c r="C230" t="s">
-        <v>227</v>
-      </c>
-      <c r="D230" t="s">
-        <v>342</v>
-      </c>
-      <c r="E230" t="s">
-        <v>572</v>
-      </c>
-      <c r="F230">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
+      <c r="C232" t="s">
+        <v>301</v>
+      </c>
+      <c r="D232" t="s">
+        <v>574</v>
+      </c>
+      <c r="E232">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>270103</v>
+      </c>
+      <c r="B233" t="s">
         <v>229</v>
       </c>
-      <c r="B231">
-        <v>270101</v>
-      </c>
-      <c r="C231" t="s">
-        <v>150</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C233" t="s">
         <v>301</v>
       </c>
-      <c r="E231" t="s">
-        <v>573</v>
-      </c>
-      <c r="F231">
+      <c r="D233" t="s">
+        <v>575</v>
+      </c>
+      <c r="E233">
         <v>2701</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>270104</v>
+      </c>
+      <c r="B234" t="s">
+        <v>153</v>
+      </c>
+      <c r="C234" t="s">
+        <v>301</v>
+      </c>
+      <c r="D234" t="s">
+        <v>576</v>
+      </c>
+      <c r="E234">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>270105</v>
+      </c>
+      <c r="B235" t="s">
+        <v>149</v>
+      </c>
+      <c r="C235" t="s">
+        <v>301</v>
+      </c>
+      <c r="D235" t="s">
+        <v>577</v>
+      </c>
+      <c r="E235">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>270106</v>
+      </c>
+      <c r="B236" t="s">
+        <v>152</v>
+      </c>
+      <c r="C236" t="s">
+        <v>301</v>
+      </c>
+      <c r="D236" t="s">
+        <v>578</v>
+      </c>
+      <c r="E236">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>270107</v>
+      </c>
+      <c r="B237" t="s">
         <v>230</v>
       </c>
-      <c r="B232">
-        <v>270102</v>
-      </c>
-      <c r="C232" t="s">
-        <v>228</v>
-      </c>
-      <c r="D232" t="s">
-        <v>301</v>
-      </c>
-      <c r="E232" t="s">
-        <v>574</v>
-      </c>
-      <c r="F232">
+      <c r="C237" t="s">
+        <v>343</v>
+      </c>
+      <c r="D237" t="s">
+        <v>579</v>
+      </c>
+      <c r="E237">
         <v>2701</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>270108</v>
+      </c>
+      <c r="B238" t="s">
         <v>231</v>
       </c>
-      <c r="B233">
-        <v>270103</v>
-      </c>
-      <c r="C233" t="s">
-        <v>229</v>
-      </c>
-      <c r="D233" t="s">
-        <v>301</v>
-      </c>
-      <c r="E233" t="s">
-        <v>575</v>
-      </c>
-      <c r="F233">
+      <c r="C238" t="s">
+        <v>343</v>
+      </c>
+      <c r="D238" t="s">
+        <v>580</v>
+      </c>
+      <c r="E238">
         <v>2701</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>270109</v>
+      </c>
+      <c r="B239" t="s">
         <v>232</v>
       </c>
-      <c r="B234">
-        <v>270104</v>
-      </c>
-      <c r="C234" t="s">
-        <v>153</v>
-      </c>
-      <c r="D234" t="s">
-        <v>301</v>
-      </c>
-      <c r="E234" t="s">
-        <v>576</v>
-      </c>
-      <c r="F234">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>270105</v>
-      </c>
-      <c r="C235" t="s">
-        <v>149</v>
-      </c>
-      <c r="D235" t="s">
-        <v>301</v>
-      </c>
-      <c r="E235" t="s">
-        <v>577</v>
-      </c>
-      <c r="F235">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>270106</v>
-      </c>
-      <c r="C236" t="s">
-        <v>152</v>
-      </c>
-      <c r="D236" t="s">
-        <v>301</v>
-      </c>
-      <c r="E236" t="s">
-        <v>578</v>
-      </c>
-      <c r="F236">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>270107</v>
-      </c>
-      <c r="C237" t="s">
-        <v>230</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="C239" t="s">
         <v>343</v>
       </c>
-      <c r="E237" t="s">
-        <v>579</v>
-      </c>
-      <c r="F237">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>270108</v>
-      </c>
-      <c r="C238" t="s">
-        <v>231</v>
-      </c>
-      <c r="D238" t="s">
-        <v>343</v>
-      </c>
-      <c r="E238" t="s">
-        <v>580</v>
-      </c>
-      <c r="F238">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>270109</v>
-      </c>
-      <c r="C239" t="s">
-        <v>232</v>
-      </c>
       <c r="D239" t="s">
-        <v>343</v>
-      </c>
-      <c r="E239" t="s">
         <v>581</v>
       </c>
-      <c r="F239">
+      <c r="E239">
         <v>2701</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/referenciaProducto.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/referenciaProducto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\precios_fruta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\DATA-AGRO\PrecioFrutaHortalizas\Consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB03D0-7577-4ABE-BDFF-0FA113032925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757562C-B04A-46A4-8027-6718501FF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="581">
   <si>
     <t>id</t>
   </si>
@@ -1135,9 +1135,6 @@
     <t>Prod: Marino-100208 | Sector: Pesca-1002 | Industria: AGR - 10</t>
   </si>
   <si>
-    <t>Prod: Marino-100209 | Sector: Pesca-1002 | Industria: AGR - 10</t>
-  </si>
-  <si>
     <t>Prod: Forestal-100301 | Sector: Silvo-1003 | Industria: AGR - 10</t>
   </si>
   <si>
@@ -1522,9 +1519,6 @@
     <t>Prod: Delitos-220121 | Sector: Delincuencia | Industria: SOCIEDAD - 22</t>
   </si>
   <si>
-    <t>Prod: Delitos-220122 | Sector: Delincuencia | Industria: SOCIEDAD - 22</t>
-  </si>
-  <si>
     <t>Prod: Delitos-220123 | Sector: Delincuencia | Industria: SOCIEDAD - 22</t>
   </si>
   <si>
@@ -1766,6 +1760,9 @@
   </si>
   <si>
     <t>Prod: Salud-270109 | Sector: Mujer-2701 | Industria: MUJER-27</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -2167,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2316,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
         <v>351</v>
@@ -2653,27 +2650,27 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100209</v>
+        <v>100301</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>371</v>
       </c>
       <c r="E29">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100301</v>
+        <v>100302</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
@@ -2687,10 +2684,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100302</v>
+        <v>100303</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>239</v>
@@ -2704,30 +2701,30 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100303</v>
+        <v>100401</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D32" t="s">
         <v>374</v>
       </c>
       <c r="E32">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100401</v>
+        <v>100402</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
         <v>375</v>
@@ -2738,13 +2735,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100402</v>
+        <v>100403</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D34" t="s">
         <v>376</v>
@@ -2755,13 +2752,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100403</v>
+        <v>100404</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D35" t="s">
         <v>377</v>
@@ -2772,13 +2769,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>100404</v>
+        <v>100405</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s">
         <v>378</v>
@@ -2789,13 +2786,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>100405</v>
+        <v>100406</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D37" t="s">
         <v>379</v>
@@ -2806,13 +2803,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>100406</v>
+        <v>100407</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
         <v>380</v>
@@ -2823,13 +2820,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>100407</v>
+        <v>100408</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
         <v>381</v>
@@ -2840,13 +2837,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>100408</v>
+        <v>100409</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
         <v>382</v>
@@ -2857,27 +2854,27 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>100409</v>
+        <v>130101</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
         <v>383</v>
       </c>
       <c r="E41">
-        <v>1004</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>130101</v>
+        <v>130201</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>249</v>
@@ -2886,15 +2883,15 @@
         <v>384</v>
       </c>
       <c r="E42">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>130201</v>
+        <v>130202</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>249</v>
@@ -2908,78 +2905,78 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>130202</v>
+        <v>130301</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
         <v>386</v>
       </c>
       <c r="E44">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>130301</v>
+        <v>130401</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
         <v>387</v>
       </c>
       <c r="E45">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>130401</v>
+        <v>130501</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
         <v>388</v>
       </c>
       <c r="E46">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>130501</v>
+        <v>130601</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
         <v>389</v>
       </c>
       <c r="E47">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>130601</v>
+        <v>130602</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>253</v>
@@ -2993,13 +2990,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>130602</v>
+        <v>130603</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
         <v>391</v>
@@ -3010,13 +3007,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>130603</v>
+        <v>130604</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
         <v>392</v>
@@ -3027,10 +3024,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>130604</v>
+        <v>140101</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>255</v>
@@ -3039,15 +3036,15 @@
         <v>393</v>
       </c>
       <c r="E51">
-        <v>1306</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>140101</v>
+        <v>140102</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>255</v>
@@ -3061,10 +3058,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>140102</v>
+        <v>140103</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>255</v>
@@ -3078,10 +3075,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>140103</v>
+        <v>140104</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>255</v>
@@ -3095,13 +3092,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>140104</v>
+        <v>140105</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
         <v>397</v>
@@ -3112,10 +3106,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>140105</v>
+        <v>140106</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
         <v>398</v>
@@ -3126,27 +3120,30 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>140106</v>
+        <v>140201</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>256</v>
       </c>
       <c r="D57" t="s">
         <v>399</v>
       </c>
       <c r="E57">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>140201</v>
+        <v>140202</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
         <v>400</v>
@@ -3157,13 +3154,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>140202</v>
+        <v>140203</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
         <v>401</v>
@@ -3174,13 +3171,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>140203</v>
+        <v>140204</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D60" t="s">
         <v>402</v>
@@ -3191,30 +3188,30 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>140204</v>
+        <v>140301</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
         <v>403</v>
       </c>
       <c r="E61">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>140301</v>
+        <v>140302</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s">
         <v>404</v>
@@ -3225,13 +3222,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>140302</v>
+        <v>140303</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
         <v>405</v>
@@ -3242,13 +3239,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>140303</v>
+        <v>140304</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
         <v>406</v>
@@ -3259,13 +3256,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>140304</v>
+        <v>140305</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="D65" t="s">
         <v>407</v>
@@ -3276,13 +3273,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>140305</v>
+        <v>140306</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
         <v>408</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>140306</v>
+        <v>140307</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
         <v>409</v>
@@ -3310,27 +3307,27 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>140307</v>
+        <v>140401</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
       </c>
       <c r="E68">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>140401</v>
+        <v>140402</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
@@ -3344,13 +3341,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>140402</v>
+        <v>140403</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s">
         <v>412</v>
@@ -3361,13 +3358,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>140403</v>
+        <v>140404</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
         <v>413</v>
@@ -3378,27 +3375,27 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>140404</v>
+        <v>150101</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
         <v>414</v>
       </c>
       <c r="E72">
-        <v>1404</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>150101</v>
+        <v>150102</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>268</v>
@@ -3412,10 +3409,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>150102</v>
+        <v>150103</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
         <v>268</v>
@@ -3429,10 +3426,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>150103</v>
+        <v>150104</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
         <v>268</v>
@@ -3446,10 +3443,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>150104</v>
+        <v>150105</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>268</v>
@@ -3463,27 +3460,27 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>150105</v>
+        <v>150201</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
         <v>419</v>
       </c>
       <c r="E77">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>150201</v>
+        <v>150202</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>269</v>
@@ -3497,10 +3494,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>150202</v>
+        <v>150203</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
         <v>269</v>
@@ -3514,30 +3511,30 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>150203</v>
+        <v>150301</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D80" t="s">
         <v>422</v>
       </c>
       <c r="E80">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>150301</v>
+        <v>150302</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D81" t="s">
         <v>423</v>
@@ -3548,13 +3545,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>150302</v>
+        <v>150303</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D82" t="s">
         <v>424</v>
@@ -3565,13 +3562,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>150303</v>
+        <v>150304</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D83" t="s">
         <v>425</v>
@@ -3582,30 +3579,30 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>150304</v>
+        <v>150401</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D84" t="s">
         <v>426</v>
       </c>
       <c r="E84">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>150401</v>
+        <v>150402</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D85" t="s">
         <v>427</v>
@@ -3616,30 +3613,30 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>150402</v>
+        <v>150501</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D86" t="s">
         <v>428</v>
       </c>
       <c r="E86">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>150501</v>
+        <v>150502</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D87" t="s">
         <v>429</v>
@@ -3650,27 +3647,27 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>150502</v>
+        <v>150601</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
         <v>430</v>
       </c>
       <c r="E88">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>150601</v>
+        <v>150602</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
         <v>278</v>
@@ -3684,10 +3681,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>150602</v>
+        <v>150603</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>278</v>
@@ -3701,10 +3698,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>150603</v>
+        <v>150604</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>278</v>
@@ -3718,10 +3715,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>150604</v>
+        <v>150605</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
         <v>278</v>
@@ -3735,27 +3732,27 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>150605</v>
+        <v>150701</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D93" t="s">
         <v>435</v>
       </c>
       <c r="E93">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>150701</v>
+        <v>150702</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
         <v>279</v>
@@ -3769,10 +3766,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>150702</v>
+        <v>150703</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>279</v>
@@ -3786,10 +3783,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>150703</v>
+        <v>150704</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>279</v>
@@ -3803,27 +3800,27 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>150704</v>
+        <v>200101</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
         <v>439</v>
       </c>
       <c r="E97">
-        <v>1507</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>200101</v>
+        <v>200102</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
         <v>280</v>
@@ -3837,10 +3834,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>200102</v>
+        <v>200103</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>280</v>
@@ -3854,10 +3851,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>200103</v>
+        <v>200104</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
         <v>280</v>
@@ -3871,10 +3868,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>200104</v>
+        <v>200105</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
         <v>280</v>
@@ -3888,10 +3885,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>200105</v>
+        <v>200106</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
         <v>280</v>
@@ -3905,10 +3902,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>200106</v>
+        <v>200107</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
         <v>280</v>
@@ -3922,10 +3919,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>200107</v>
+        <v>200108</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
         <v>280</v>
@@ -3939,10 +3936,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>200108</v>
+        <v>200109</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
         <v>280</v>
@@ -3956,10 +3953,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200109</v>
+        <v>200110</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
         <v>280</v>
@@ -3973,10 +3970,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>200110</v>
+        <v>200111</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
         <v>280</v>
@@ -3990,10 +3987,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>200111</v>
+        <v>200112</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
         <v>280</v>
@@ -4007,10 +4004,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>200112</v>
+        <v>200113</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
         <v>280</v>
@@ -4024,10 +4021,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>200113</v>
+        <v>200114</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
         <v>280</v>
@@ -4041,10 +4038,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>200114</v>
+        <v>200115</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
         <v>280</v>
@@ -4058,10 +4055,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>200115</v>
+        <v>200116</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
         <v>280</v>
@@ -4075,10 +4072,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>200116</v>
+        <v>200117</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
         <v>280</v>
@@ -4092,10 +4089,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>200117</v>
+        <v>200118</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
         <v>280</v>
@@ -4109,10 +4106,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>200118</v>
+        <v>200119</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
         <v>280</v>
@@ -4126,10 +4123,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>200119</v>
+        <v>200120</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
         <v>280</v>
@@ -4143,10 +4140,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>200120</v>
+        <v>200121</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
         <v>280</v>
@@ -4160,10 +4157,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>200121</v>
+        <v>200122</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
         <v>280</v>
@@ -4177,10 +4174,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200122</v>
+        <v>200123</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
         <v>280</v>
@@ -4194,10 +4191,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200123</v>
+        <v>200124</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
         <v>280</v>
@@ -4211,10 +4208,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>200124</v>
+        <v>200125</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
         <v>280</v>
@@ -4228,30 +4225,30 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>200125</v>
+        <v>200201</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D122" t="s">
         <v>464</v>
       </c>
       <c r="E122">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>200201</v>
+        <v>200202</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D123" t="s">
         <v>465</v>
@@ -4262,13 +4259,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>200202</v>
+        <v>200203</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D124" t="s">
         <v>466</v>
@@ -4279,30 +4276,30 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200203</v>
+        <v>200301</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D125" t="s">
         <v>467</v>
       </c>
       <c r="E125">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200301</v>
+        <v>200302</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s">
         <v>468</v>
@@ -4313,13 +4310,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>200302</v>
+        <v>200303</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D127" t="s">
         <v>469</v>
@@ -4330,30 +4327,30 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>200303</v>
+        <v>200401</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D128" t="s">
         <v>470</v>
       </c>
       <c r="E128">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>200401</v>
+        <v>200402</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D129" t="s">
         <v>471</v>
@@ -4364,64 +4361,64 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>200402</v>
+        <v>200501</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D130" t="s">
         <v>472</v>
       </c>
       <c r="E130">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>200501</v>
+        <v>200601</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D131" t="s">
         <v>473</v>
       </c>
       <c r="E131">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>200601</v>
+        <v>200701</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D132" t="s">
         <v>474</v>
       </c>
       <c r="E132">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>200701</v>
+        <v>200702</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D133" t="s">
         <v>475</v>
@@ -4432,13 +4429,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>200702</v>
+        <v>200703</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D134" t="s">
         <v>476</v>
@@ -4449,13 +4446,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>200703</v>
+        <v>200704</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D135" t="s">
         <v>477</v>
@@ -4466,30 +4463,30 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>200704</v>
+        <v>220101</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
         <v>478</v>
       </c>
       <c r="E136">
-        <v>2007</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>220101</v>
+        <v>220102</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="D137" t="s">
         <v>479</v>
@@ -4500,13 +4497,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>220102</v>
+        <v>220103</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D138" t="s">
         <v>480</v>
@@ -4517,13 +4514,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>220103</v>
+        <v>220104</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D139" t="s">
         <v>481</v>
@@ -4534,13 +4531,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>220104</v>
+        <v>220105</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D140" t="s">
         <v>482</v>
@@ -4551,13 +4548,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>220105</v>
+        <v>220106</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D141" t="s">
         <v>483</v>
@@ -4568,13 +4565,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>220106</v>
+        <v>220107</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D142" t="s">
         <v>484</v>
@@ -4585,13 +4582,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>220107</v>
+        <v>220108</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
         <v>485</v>
@@ -4602,13 +4599,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>220108</v>
+        <v>220109</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
         <v>486</v>
@@ -4619,13 +4616,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>220109</v>
+        <v>220110</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="D145" t="s">
         <v>487</v>
@@ -4636,10 +4633,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>220110</v>
+        <v>220111</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
         <v>301</v>
@@ -4653,10 +4650,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>220111</v>
+        <v>220112</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
         <v>301</v>
@@ -4670,10 +4667,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>220112</v>
+        <v>220113</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
         <v>301</v>
@@ -4687,10 +4684,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>220113</v>
+        <v>220114</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
         <v>301</v>
@@ -4704,10 +4701,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>220114</v>
+        <v>220115</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
         <v>301</v>
@@ -4721,10 +4718,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>220115</v>
+        <v>220116</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
         <v>301</v>
@@ -4738,10 +4735,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>220116</v>
+        <v>220117</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
         <v>301</v>
@@ -4755,10 +4752,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>220117</v>
+        <v>220118</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
         <v>301</v>
@@ -4772,10 +4769,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>220118</v>
+        <v>220119</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
         <v>301</v>
@@ -4789,10 +4786,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>220119</v>
+        <v>220120</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
         <v>301</v>
@@ -4806,10 +4803,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>220120</v>
+        <v>220121</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
         <v>301</v>
@@ -4823,10 +4820,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>220121</v>
+        <v>220123</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
         <v>301</v>
@@ -4840,10 +4837,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>220122</v>
+        <v>220124</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
         <v>301</v>
@@ -4857,10 +4854,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>220123</v>
+        <v>220125</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
         <v>301</v>
@@ -4874,10 +4871,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>220124</v>
+        <v>220126</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
         <v>301</v>
@@ -4891,10 +4888,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>220125</v>
+        <v>220127</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
         <v>301</v>
@@ -4908,10 +4905,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>220126</v>
+        <v>220128</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
         <v>301</v>
@@ -4925,10 +4922,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>220127</v>
+        <v>220129</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
         <v>301</v>
@@ -4942,10 +4939,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>220128</v>
+        <v>220130</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
         <v>301</v>
@@ -4959,10 +4956,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>220129</v>
+        <v>220131</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
         <v>301</v>
@@ -4976,47 +4973,47 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>220130</v>
+        <v>220201</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="D166" t="s">
         <v>508</v>
       </c>
       <c r="E166">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>220131</v>
+        <v>220202</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="D167" t="s">
         <v>509</v>
       </c>
       <c r="E167">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>220201</v>
+        <v>220203</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D168" t="s">
         <v>510</v>
@@ -5027,13 +5024,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>220202</v>
+        <v>220204</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D169" t="s">
         <v>511</v>
@@ -5044,10 +5041,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>220203</v>
+        <v>220205</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
         <v>169</v>
@@ -5061,13 +5058,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>220204</v>
+        <v>220206</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="D171" t="s">
         <v>513</v>
@@ -5078,13 +5075,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>220205</v>
+        <v>220207</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="D172" t="s">
         <v>514</v>
@@ -5095,13 +5092,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>220206</v>
+        <v>220208</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D173" t="s">
         <v>515</v>
@@ -5112,13 +5109,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>220207</v>
+        <v>220209</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D174" t="s">
         <v>516</v>
@@ -5129,13 +5126,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>220208</v>
+        <v>220210</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D175" t="s">
         <v>517</v>
@@ -5146,47 +5143,47 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>220209</v>
+        <v>220301</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="D176" t="s">
         <v>518</v>
       </c>
       <c r="E176">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>220210</v>
+        <v>220302</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="D177" t="s">
         <v>519</v>
       </c>
       <c r="E177">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>220301</v>
+        <v>220303</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D178" t="s">
         <v>520</v>
@@ -5197,13 +5194,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>220302</v>
+        <v>220304</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D179" t="s">
         <v>521</v>
@@ -5214,13 +5211,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>220303</v>
+        <v>220305</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D180" t="s">
         <v>522</v>
@@ -5231,13 +5228,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>220304</v>
+        <v>220306</v>
       </c>
       <c r="B181" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="D181" t="s">
         <v>523</v>
@@ -5248,13 +5245,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>220305</v>
+        <v>220307</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="D182" t="s">
         <v>524</v>
@@ -5265,13 +5262,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>220306</v>
+        <v>220308</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D183" t="s">
         <v>525</v>
@@ -5282,47 +5279,47 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>220307</v>
+        <v>220401</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D184" t="s">
         <v>526</v>
       </c>
       <c r="E184">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>220308</v>
+        <v>220402</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D185" t="s">
         <v>527</v>
       </c>
       <c r="E185">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>220401</v>
+        <v>220403</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D186" t="s">
         <v>528</v>
@@ -5333,13 +5330,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>220402</v>
+        <v>220404</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D187" t="s">
         <v>529</v>
@@ -5350,13 +5347,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>220403</v>
+        <v>220405</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D188" t="s">
         <v>530</v>
@@ -5367,13 +5364,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>220404</v>
+        <v>220406</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D189" t="s">
         <v>531</v>
@@ -5384,13 +5381,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>220405</v>
+        <v>220407</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D190" t="s">
         <v>532</v>
@@ -5401,47 +5398,47 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>220406</v>
+        <v>220501</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D191" t="s">
         <v>533</v>
       </c>
       <c r="E191">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>220407</v>
+        <v>220502</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D192" t="s">
         <v>534</v>
       </c>
       <c r="E192">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>220501</v>
+        <v>220503</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D193" t="s">
         <v>535</v>
@@ -5452,47 +5449,47 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>220502</v>
+        <v>220601</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D194" t="s">
         <v>536</v>
       </c>
       <c r="E194">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>220503</v>
+        <v>220602</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="D195" t="s">
         <v>537</v>
       </c>
       <c r="E195">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>220601</v>
+        <v>220603</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D196" t="s">
         <v>538</v>
@@ -5503,13 +5500,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>220602</v>
+        <v>220604</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="D197" t="s">
         <v>539</v>
@@ -5520,13 +5517,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>220603</v>
+        <v>220605</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D198" t="s">
         <v>540</v>
@@ -5537,13 +5534,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>220604</v>
+        <v>220606</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D199" t="s">
         <v>541</v>
@@ -5554,13 +5551,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>220605</v>
+        <v>220607</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D200" t="s">
         <v>542</v>
@@ -5571,10 +5568,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>220606</v>
+        <v>220608</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
         <v>324</v>
@@ -5588,13 +5585,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>220607</v>
+        <v>220609</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D202" t="s">
         <v>544</v>
@@ -5605,44 +5602,44 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>220608</v>
+        <v>220701</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D203" t="s">
         <v>545</v>
       </c>
       <c r="E203">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>220609</v>
+        <v>220702</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D204" t="s">
         <v>546</v>
       </c>
       <c r="E204">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>220701</v>
+        <v>220703</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
         <v>326</v>
@@ -5656,10 +5653,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>220702</v>
+        <v>220704</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
         <v>326</v>
@@ -5673,10 +5670,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>220703</v>
+        <v>220705</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
         <v>326</v>
@@ -5690,10 +5687,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>220704</v>
+        <v>220706</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C208" t="s">
         <v>326</v>
@@ -5707,47 +5704,47 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>220705</v>
+        <v>220801</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D209" t="s">
         <v>551</v>
       </c>
       <c r="E209">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>220706</v>
+        <v>220802</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="D210" t="s">
         <v>552</v>
       </c>
       <c r="E210">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>220801</v>
+        <v>220803</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D211" t="s">
         <v>553</v>
@@ -5758,64 +5755,64 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>220802</v>
+        <v>220901</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C212" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="D212" t="s">
         <v>554</v>
       </c>
       <c r="E212">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>220803</v>
+        <v>240101</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C213" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D213" t="s">
         <v>555</v>
       </c>
       <c r="E213">
-        <v>2208</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>220901</v>
+        <v>240102</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D214" t="s">
         <v>556</v>
       </c>
       <c r="E214">
-        <v>2209</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>240101</v>
+        <v>240103</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D215" t="s">
         <v>557</v>
@@ -5826,47 +5823,47 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>240102</v>
+        <v>240201</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="C216" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D216" t="s">
         <v>558</v>
       </c>
       <c r="E216">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>240103</v>
+        <v>240202</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D217" t="s">
         <v>559</v>
       </c>
       <c r="E217">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>240201</v>
+        <v>240203</v>
       </c>
       <c r="B218" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D218" t="s">
         <v>560</v>
@@ -5877,13 +5874,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>240202</v>
+        <v>240204</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D219" t="s">
         <v>561</v>
@@ -5894,13 +5891,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>240203</v>
+        <v>240205</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D220" t="s">
         <v>562</v>
@@ -5911,47 +5908,47 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>240204</v>
+        <v>240301</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D221" t="s">
         <v>563</v>
       </c>
       <c r="E221">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>240205</v>
+        <v>240302</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D222" t="s">
         <v>564</v>
       </c>
       <c r="E222">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>240301</v>
+        <v>240303</v>
       </c>
       <c r="B223" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="D223" t="s">
         <v>565</v>
@@ -5962,81 +5959,81 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>240302</v>
+        <v>240401</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="D224" t="s">
         <v>566</v>
       </c>
       <c r="E224">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>240303</v>
+        <v>240501</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="D225" t="s">
         <v>567</v>
       </c>
       <c r="E225">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>240401</v>
+        <v>240601</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>91</v>
+        <v>341</v>
       </c>
       <c r="D226" t="s">
         <v>568</v>
       </c>
       <c r="E226">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>240501</v>
+        <v>240602</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D227" t="s">
         <v>569</v>
       </c>
       <c r="E227">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>240601</v>
+        <v>240603</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D228" t="s">
         <v>570</v>
@@ -6047,44 +6044,44 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>240602</v>
+        <v>270101</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="C229" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D229" t="s">
         <v>571</v>
       </c>
       <c r="E229">
-        <v>2406</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>240603</v>
+        <v>270102</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D230" t="s">
         <v>572</v>
       </c>
       <c r="E230">
-        <v>2406</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>270101</v>
+        <v>270103</v>
       </c>
       <c r="B231" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
         <v>301</v>
@@ -6098,10 +6095,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>270102</v>
+        <v>270104</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="C232" t="s">
         <v>301</v>
@@ -6115,10 +6112,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>270103</v>
+        <v>270105</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="C233" t="s">
         <v>301</v>
@@ -6132,10 +6129,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>270104</v>
+        <v>270106</v>
       </c>
       <c r="B234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C234" t="s">
         <v>301</v>
@@ -6149,13 +6146,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>270105</v>
+        <v>270107</v>
       </c>
       <c r="B235" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="C235" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="D235" t="s">
         <v>577</v>
@@ -6166,13 +6163,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>270106</v>
+        <v>270108</v>
       </c>
       <c r="B236" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="C236" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="D236" t="s">
         <v>578</v>
@@ -6183,10 +6180,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>270107</v>
+        <v>270109</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C237" t="s">
         <v>343</v>
@@ -6195,40 +6192,6 @@
         <v>579</v>
       </c>
       <c r="E237">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>270108</v>
-      </c>
-      <c r="B238" t="s">
-        <v>231</v>
-      </c>
-      <c r="C238" t="s">
-        <v>343</v>
-      </c>
-      <c r="D238" t="s">
-        <v>580</v>
-      </c>
-      <c r="E238">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>270109</v>
-      </c>
-      <c r="B239" t="s">
-        <v>232</v>
-      </c>
-      <c r="C239" t="s">
-        <v>343</v>
-      </c>
-      <c r="D239" t="s">
-        <v>581</v>
-      </c>
-      <c r="E239">
         <v>2701</v>
       </c>
     </row>
